--- a/UnitTests/sensitivity analysis.xlsx
+++ b/UnitTests/sensitivity analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twest\Documents\PhD\BayesianPG\UnitTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C49565A-C82E-4143-BD9E-D7DFE201C422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3379FE4-1CF1-4A64-955E-47AFD04C99A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="180" windowWidth="19200" windowHeight="11820" firstSheet="1" activeTab="5" xr2:uid="{AFF95D1E-4532-4146-A96A-A87E92C103F2}"/>
+    <workbookView xWindow="-168" yWindow="120" windowWidth="19200" windowHeight="11820" firstSheet="1" activeTab="5" xr2:uid="{AFF95D1E-4532-4146-A96A-A87E92C103F2}"/>
   </bookViews>
   <sheets>
     <sheet name="site" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="217">
   <si>
     <t>site</t>
   </si>
@@ -27245,7 +27245,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27515,28 +27515,28 @@
         <v>1E-3</v>
       </c>
       <c r="E2">
-        <v>1.0790996014346421E-2</v>
+        <v>-7.1978540398048834E-3</v>
       </c>
       <c r="F2">
-        <v>2.1669824655187941</v>
+        <v>2.3280649691667392</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I2">
         <v>1E-3</v>
       </c>
       <c r="J2">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K2">
         <v>10</v>
       </c>
       <c r="L2">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>-5</v>
@@ -27596,7 +27596,7 @@
         <v>100</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -27617,13 +27617,13 @@
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AP2">
         <v>5</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -27632,7 +27632,7 @@
         <v>3</v>
       </c>
       <c r="AT2">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="AU2">
         <v>0.2</v>
@@ -27647,7 +27647,7 @@
         <v>3</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -27665,13 +27665,13 @@
         <v>208</v>
       </c>
       <c r="BJ2">
-        <v>8.2079727254740931</v>
+        <v>0.50265532835659599</v>
       </c>
       <c r="BK2">
-        <v>11.434916081319249</v>
+        <v>10.892427189493411</v>
       </c>
       <c r="BL2">
-        <v>-1.6290824481706951E-2</v>
+        <v>-2.0418163064035679E-2</v>
       </c>
       <c r="BQ2">
         <v>0.5</v>
@@ -27694,14 +27694,8 @@
       <c r="BW2">
         <v>0.5</v>
       </c>
-      <c r="BX2">
-        <v>-1</v>
-      </c>
       <c r="BY2">
         <v>-0.1</v>
-      </c>
-      <c r="BZ2">
-        <v>-1</v>
       </c>
       <c r="CA2">
         <v>-160</v>
@@ -27732,19 +27726,19 @@
       </c>
       <c r="E3">
         <f>E2</f>
-        <v>1.0790996014346421E-2</v>
+        <v>-7.1978540398048834E-3</v>
       </c>
       <c r="F3">
         <f>F2</f>
-        <v>2.1669824655187941</v>
+        <v>2.3280649691667392</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:L3" si="0">G2</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
@@ -27752,7 +27746,7 @@
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
@@ -27760,7 +27754,7 @@
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <f>O2</f>
@@ -27840,7 +27834,7 @@
       </c>
       <c r="AH3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -27867,7 +27861,7 @@
       </c>
       <c r="AO3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AP3">
         <f t="shared" si="1"/>
@@ -27875,7 +27869,7 @@
       </c>
       <c r="AQ3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AR3">
         <f t="shared" si="1"/>
@@ -27887,7 +27881,7 @@
       </c>
       <c r="AT3">
         <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="AU3">
         <f t="shared" si="1"/>
@@ -27907,7 +27901,7 @@
       </c>
       <c r="AY3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AZ3">
         <f t="shared" si="1"/>
@@ -27932,10 +27926,10 @@
         <v>0</v>
       </c>
       <c r="BK3">
-        <v>-0.75511437241943957</v>
+        <v>-1.6722955158657451</v>
       </c>
       <c r="BL3">
-        <v>-1.660677530068974</v>
+        <v>-2.4437288010924152</v>
       </c>
       <c r="BM3" s="5"/>
       <c r="BQ3">
@@ -28006,10 +28000,10 @@
         <v>8.7749999999999998E-3</v>
       </c>
       <c r="E4">
-        <v>7.6192158227073689E-2</v>
+        <v>1.316594979079864E-2</v>
       </c>
       <c r="F4">
-        <v>2.3645862625977818</v>
+        <v>2.8770447953028748</v>
       </c>
       <c r="G4">
         <v>0.2</v>
@@ -28096,7 +28090,7 @@
         <v>1.5</v>
       </c>
       <c r="AI4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0.4</v>
@@ -28120,7 +28114,7 @@
         <v>15</v>
       </c>
       <c r="AQ4">
-        <v>0.3</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AR4">
         <v>5</v>
@@ -28177,16 +28171,16 @@
         <v>208</v>
       </c>
       <c r="BJ4">
-        <v>61.736834622182272</v>
+        <v>64.585580178831052</v>
       </c>
       <c r="BK4">
-        <v>23.023686902956939</v>
+        <v>23.914635486735389</v>
       </c>
       <c r="BL4">
-        <v>7.029674575535336E-3</v>
+        <v>6.4489965936199208E-3</v>
       </c>
       <c r="BM4">
-        <v>1.211326010252953E-5</v>
+        <v>1.183976207053338E-5</v>
       </c>
       <c r="BN4">
         <v>0</v>
@@ -28195,7 +28189,7 @@
         <v>0</v>
       </c>
       <c r="BP4">
-        <v>1.0715322347734431</v>
+        <v>1.073520224415796</v>
       </c>
       <c r="BQ4">
         <v>0.65</v>
@@ -28256,10 +28250,10 @@
         <v>8.7749999999999998E-3</v>
       </c>
       <c r="E5">
-        <v>0.13369036718710811</v>
+        <v>4.066997801363819E-2</v>
       </c>
       <c r="F5">
-        <v>2.2127566005894672</v>
+        <v>2.6063662937456038</v>
       </c>
       <c r="G5">
         <f t="shared" si="4"/>
@@ -28375,7 +28369,7 @@
       </c>
       <c r="AI5">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="4"/>
@@ -28407,7 +28401,7 @@
       </c>
       <c r="AQ5">
         <f t="shared" si="4"/>
-        <v>0.3</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AR5">
         <f t="shared" si="4"/>
@@ -28481,16 +28475,16 @@
         <v>84</v>
       </c>
       <c r="BJ5">
-        <v>2.3130283232829361</v>
+        <v>2.330917307238483</v>
       </c>
       <c r="BK5">
-        <v>0.63370381529138697</v>
+        <v>0.63291057399690898</v>
       </c>
       <c r="BL5">
-        <v>0.20856577161536169</v>
+        <v>0.20487835069199711</v>
       </c>
       <c r="BM5">
-        <v>4.0867354950698826E-6</v>
+        <v>4.0174092603404844E-6</v>
       </c>
       <c r="BN5">
         <v>0</v>
@@ -28499,7 +28493,7 @@
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>1.170907831004721</v>
+        <v>1.170810490980233</v>
       </c>
       <c r="BQ5">
         <f>BQ4</f>
@@ -28569,10 +28563,10 @@
         <v>8.7749999999999998E-3</v>
       </c>
       <c r="E6">
-        <v>1.6217413032989611E-2</v>
+        <v>4.548158545786116E-3</v>
       </c>
       <c r="F6">
-        <v>2.7510783040065081</v>
+        <v>3.1141641572847729</v>
       </c>
       <c r="G6">
         <f t="shared" si="6"/>
@@ -28688,7 +28682,7 @@
       </c>
       <c r="AI6">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="6"/>
@@ -28720,7 +28714,7 @@
       </c>
       <c r="AQ6">
         <f t="shared" si="6"/>
-        <v>0.3</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AR6">
         <f t="shared" si="6"/>
@@ -28794,16 +28788,16 @@
         <v>84</v>
       </c>
       <c r="BJ6">
-        <v>0.33092186126677081</v>
+        <v>37.826720480089122</v>
       </c>
       <c r="BK6">
-        <v>1.41577448084768</v>
+        <v>20.679424908745041</v>
       </c>
       <c r="BL6">
-        <v>-0.12693920406256981</v>
+        <v>1.298851572253204E-2</v>
       </c>
       <c r="BM6">
-        <v>1.3721840600948599E-5</v>
+        <v>1.364369598092224E-5</v>
       </c>
       <c r="BN6">
         <v>0</v>
@@ -28812,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="BP6">
-        <v>1.0589427110286549</v>
+        <v>1.0593119350656699</v>
       </c>
       <c r="BQ6">
         <f>BQ4</f>
@@ -28887,10 +28881,10 @@
         <v>8.7749999999999998E-3</v>
       </c>
       <c r="E7">
-        <v>9.5232043889651521E-2</v>
+        <v>7.9985752096884358E-3</v>
       </c>
       <c r="F7">
-        <v>2.3111433845996472</v>
+        <v>3.1092019845454071</v>
       </c>
       <c r="G7">
         <f t="shared" si="9"/>
@@ -29006,7 +29000,7 @@
       </c>
       <c r="AI7">
         <f t="shared" si="9"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="9"/>
@@ -29038,7 +29032,7 @@
       </c>
       <c r="AQ7">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AR7">
         <f t="shared" si="9"/>
@@ -29112,16 +29106,16 @@
         <v>208</v>
       </c>
       <c r="BJ7">
-        <v>68.599150751797893</v>
+        <v>71.709664215353897</v>
       </c>
       <c r="BK7">
-        <v>20.268655643401349</v>
+        <v>20.79951140642579</v>
       </c>
       <c r="BL7">
-        <v>3.5889954930995549E-3</v>
+        <v>2.663037839895343E-3</v>
       </c>
       <c r="BM7">
-        <v>1.7182048323151669E-5</v>
+        <v>1.6961917868603648E-5</v>
       </c>
       <c r="BN7">
         <v>0</v>
@@ -29130,7 +29124,7 @@
         <v>0</v>
       </c>
       <c r="BP7">
-        <v>1.029750230639449</v>
+        <v>1.03074763478362</v>
       </c>
       <c r="BQ7">
         <f>BQ4</f>
@@ -29205,10 +29199,10 @@
         <v>8.7749999999999998E-3</v>
       </c>
       <c r="E8">
-        <v>1.4289512349458119E-2</v>
+        <v>3.8600093417636271E-3</v>
       </c>
       <c r="F8">
-        <v>2.7433682424456731</v>
+        <v>3.1044800824516812</v>
       </c>
       <c r="G8">
         <f t="shared" si="12"/>
@@ -29324,7 +29318,7 @@
       </c>
       <c r="AI8">
         <f t="shared" si="12"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="12"/>
@@ -29356,7 +29350,7 @@
       </c>
       <c r="AQ8">
         <f t="shared" si="12"/>
-        <v>0.3</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AR8">
         <f t="shared" si="12"/>
@@ -29430,16 +29424,16 @@
         <v>84</v>
       </c>
       <c r="BJ8">
-        <v>2.397190875078245E-2</v>
+        <v>1.965919544852399E-2</v>
       </c>
       <c r="BK8">
-        <v>2.596249851440986</v>
+        <v>2.6872019390693169</v>
       </c>
       <c r="BL8">
-        <v>-0.7444223615139639</v>
+        <v>-0.78907981928267246</v>
       </c>
       <c r="BM8">
-        <v>1.7372620300797451E-5</v>
+        <v>1.669063248274549E-5</v>
       </c>
       <c r="BN8">
         <v>0</v>
@@ -29448,7 +29442,7 @@
         <v>0</v>
       </c>
       <c r="BP8">
-        <v>1.0354910957656049</v>
+        <v>1.0389310743532609</v>
       </c>
       <c r="BQ8">
         <f>BQ4</f>
@@ -29523,10 +29517,10 @@
         <v>8.7749999999999998E-3</v>
       </c>
       <c r="E9">
-        <v>0.1188286515095465</v>
+        <v>2.460440644367028E-2</v>
       </c>
       <c r="F9">
-        <v>2.2144289715125391</v>
+        <v>2.6695288298122479</v>
       </c>
       <c r="G9">
         <f t="shared" si="15"/>
@@ -29642,7 +29636,7 @@
       </c>
       <c r="AI9">
         <f t="shared" si="15"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <f t="shared" si="15"/>
@@ -29674,7 +29668,7 @@
       </c>
       <c r="AQ9">
         <f t="shared" si="15"/>
-        <v>0.3</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AR9">
         <f t="shared" si="15"/>
@@ -29748,16 +29742,16 @@
         <v>84</v>
       </c>
       <c r="BJ9">
-        <v>0.7175310427638002</v>
+        <v>0.72861944441683202</v>
       </c>
       <c r="BK9">
-        <v>1.1704167703601751</v>
+        <v>1.1768573248648879</v>
       </c>
       <c r="BL9">
-        <v>-7.8554899029981626E-2</v>
+        <v>-9.0942213698474578E-2</v>
       </c>
       <c r="BM9">
-        <v>1.488526950963795E-5</v>
+        <v>1.4494655056299729E-5</v>
       </c>
       <c r="BN9">
         <v>0</v>
@@ -29766,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="BP9">
-        <v>1.047641503894704</v>
+        <v>1.049408698937472</v>
       </c>
       <c r="BQ9">
         <f>BQ4</f>
@@ -29833,28 +29827,28 @@
         <v>33</v>
       </c>
       <c r="C10">
+        <v>0.8</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="D10">
-        <v>0.3</v>
-      </c>
       <c r="E10">
-        <v>0.14230189702954171</v>
+        <v>7.9755665589729269E-2</v>
       </c>
       <c r="F10">
-        <v>2.8099747921595082</v>
+        <v>3.6723371362821302</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I10" s="4">
-        <v>0.05</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="J10" s="4">
-        <v>0.05</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="K10">
         <v>80</v>
@@ -29881,7 +29875,7 @@
         <v>11</v>
       </c>
       <c r="U10">
-        <v>1.99</v>
+        <v>1.7</v>
       </c>
       <c r="V10">
         <v>1</v>
@@ -29920,7 +29914,7 @@
         <v>800</v>
       </c>
       <c r="AH10">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AI10">
         <v>2</v>
@@ -29947,7 +29941,7 @@
         <v>50</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR10">
         <v>20</v>
@@ -29956,7 +29950,7 @@
         <v>10</v>
       </c>
       <c r="AT10">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AU10">
         <v>0.8</v>
@@ -29965,13 +29959,13 @@
         <v>0.01</v>
       </c>
       <c r="AW10">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="AX10">
         <v>10</v>
       </c>
       <c r="AY10">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="AZ10">
         <v>1</v>
@@ -29989,13 +29983,13 @@
         <v>208</v>
       </c>
       <c r="BJ10">
-        <v>128.99032877812169</v>
+        <v>142.91667310235121</v>
       </c>
       <c r="BK10">
-        <v>32.008637173284441</v>
+        <v>34.262655759129217</v>
       </c>
       <c r="BL10">
-        <v>2.3468815467906062E-2</v>
+        <v>2.5744238743826361E-2</v>
       </c>
       <c r="BQ10">
         <v>2</v>
@@ -30018,14 +30012,8 @@
       <c r="BW10">
         <v>1.5</v>
       </c>
-      <c r="BX10">
-        <v>1</v>
-      </c>
       <c r="BY10">
-        <v>0.1</v>
-      </c>
-      <c r="BZ10">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="CA10">
         <v>-20</v>
@@ -30049,35 +30037,35 @@
       </c>
       <c r="C11">
         <f>C10</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D11">
         <f t="shared" ref="D11:L11" si="18">D10</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
         <f t="shared" si="18"/>
-        <v>0.14230189702954171</v>
+        <v>7.9755665589729269E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="18"/>
-        <v>2.8099747921595082</v>
+        <v>3.6723371362821302</v>
       </c>
       <c r="G11">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H11">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I11">
         <f t="shared" si="18"/>
-        <v>0.05</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="J11">
         <f t="shared" si="18"/>
-        <v>0.05</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="K11">
         <f t="shared" si="18"/>
@@ -30113,7 +30101,7 @@
       </c>
       <c r="U11">
         <f t="shared" si="19"/>
-        <v>1.99</v>
+        <v>1.7</v>
       </c>
       <c r="V11">
         <f t="shared" si="19"/>
@@ -30164,7 +30152,7 @@
       </c>
       <c r="AH11">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AI11">
         <f t="shared" si="19"/>
@@ -30200,7 +30188,7 @@
       </c>
       <c r="AQ11">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR11">
         <f t="shared" si="19"/>
@@ -30212,7 +30200,7 @@
       </c>
       <c r="AT11">
         <f t="shared" si="19"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AU11">
         <f t="shared" si="19"/>
@@ -30224,7 +30212,7 @@
       </c>
       <c r="AW11">
         <f t="shared" si="19"/>
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="AX11">
         <f t="shared" si="19"/>
@@ -30232,7 +30220,7 @@
       </c>
       <c r="AY11">
         <f t="shared" si="19"/>
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="AZ11">
         <f t="shared" si="19"/>
@@ -30254,13 +30242,13 @@
         <v>84</v>
       </c>
       <c r="BJ11">
-        <v>5.800955351077965</v>
+        <v>78.320623365952969</v>
       </c>
       <c r="BK11">
-        <v>3.9151919446602998</v>
+        <v>39.563857593575037</v>
       </c>
       <c r="BL11">
-        <v>1.5035677320090111</v>
+        <v>2.2618443736954661</v>
       </c>
       <c r="BQ11">
         <f>BQ10</f>
@@ -30328,28 +30316,28 @@
         <v>1E-3</v>
       </c>
       <c r="E12">
-        <v>0.16520939062615311</v>
+        <v>-8.0885432155516357E-3</v>
       </c>
       <c r="F12">
-        <v>1.948867514770882</v>
+        <v>2.1177671724485418</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I12">
         <v>1E-3</v>
       </c>
       <c r="J12">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K12">
         <v>10</v>
       </c>
       <c r="L12">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>-5</v>
@@ -30409,7 +30397,7 @@
         <v>100</v>
       </c>
       <c r="AH12">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -30430,13 +30418,13 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AP12">
         <v>5</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -30445,7 +30433,7 @@
         <v>3</v>
       </c>
       <c r="AT12">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="AU12">
         <v>0.2</v>
@@ -30460,7 +30448,7 @@
         <v>3</v>
       </c>
       <c r="AY12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AZ12">
         <v>0</v>
@@ -30478,13 +30466,13 @@
         <v>208</v>
       </c>
       <c r="BJ12">
-        <v>-114.02760924055541</v>
+        <v>-121.0277171976977</v>
       </c>
       <c r="BK12">
-        <v>18.643759599626179</v>
+        <v>16.836790305210069</v>
       </c>
       <c r="BL12">
-        <v>-7.4809984703198246E-2</v>
+        <v>-7.5658428918183696E-2</v>
       </c>
       <c r="BQ12">
         <v>1</v>
@@ -30507,14 +30495,8 @@
       <c r="BW12">
         <v>0.25</v>
       </c>
-      <c r="BX12">
-        <v>-0.5</v>
-      </c>
       <c r="BY12">
         <v>-0.5</v>
-      </c>
-      <c r="BZ12">
-        <v>0</v>
       </c>
       <c r="CA12">
         <v>-160</v>
@@ -30536,17 +30518,19 @@
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="D13">
-        <v>7.7999999999999996E-3</v>
+      <c r="C13" s="2">
+        <f>9/8*0.067</f>
+        <v>7.5374999999999998E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f>9.8*0.0078</f>
+        <v>7.6440000000000008E-2</v>
       </c>
       <c r="E13">
-        <v>0.19440356092834829</v>
+        <v>3.7946424395750758E-2</v>
       </c>
       <c r="F13">
-        <v>1.9888047697145961</v>
+        <v>2.4521401040863129</v>
       </c>
       <c r="G13">
         <v>0.2</v>
@@ -30657,7 +30641,7 @@
         <v>20</v>
       </c>
       <c r="AQ13">
-        <v>0.3</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AR13">
         <v>5</v>
@@ -30714,16 +30698,16 @@
         <v>208</v>
       </c>
       <c r="BJ13">
-        <v>134.82359057799829</v>
+        <v>130.89371475077539</v>
       </c>
       <c r="BK13">
-        <v>43.523690058872063</v>
+        <v>42.972959975919998</v>
       </c>
       <c r="BL13">
-        <v>-1.5112003356443049E-2</v>
+        <v>-1.452072424041978E-2</v>
       </c>
       <c r="BM13">
-        <v>1.133252636653412E-4</v>
+        <v>1.218362554146168E-4</v>
       </c>
       <c r="BN13">
         <v>0</v>
@@ -30732,7 +30716,7 @@
         <v>0</v>
       </c>
       <c r="BP13">
-        <v>0.85036632953034119</v>
+        <v>0.84299719686547303</v>
       </c>
       <c r="BQ13">
         <v>1.38</v>
@@ -30785,28 +30769,28 @@
         <v>35</v>
       </c>
       <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
         <v>0.5</v>
       </c>
-      <c r="D14">
-        <v>0.3</v>
-      </c>
       <c r="E14">
-        <v>0.22359773123054349</v>
+        <v>8.3981392007053152E-2</v>
       </c>
       <c r="F14">
-        <v>2.028742024658309</v>
+        <v>2.7865130357240839</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I14" s="4">
-        <v>0.05</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="J14" s="4">
-        <v>0.05</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="K14">
         <v>80</v>
@@ -30833,7 +30817,7 @@
         <v>11</v>
       </c>
       <c r="U14">
-        <v>1.99</v>
+        <v>1.7</v>
       </c>
       <c r="V14">
         <v>1</v>
@@ -30872,7 +30856,7 @@
         <v>1100</v>
       </c>
       <c r="AH14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AI14">
         <v>2</v>
@@ -30899,7 +30883,7 @@
         <v>50</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR14">
         <v>20</v>
@@ -30908,7 +30892,7 @@
         <v>10</v>
       </c>
       <c r="AT14">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AU14">
         <v>0.8</v>
@@ -30917,13 +30901,13 @@
         <v>0.01</v>
       </c>
       <c r="AW14">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="AX14">
         <v>10</v>
       </c>
       <c r="AY14">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="AZ14">
         <v>1</v>
@@ -30941,13 +30925,13 @@
         <v>208</v>
       </c>
       <c r="BJ14">
-        <v>383.674790396552</v>
+        <v>382.81514669924849</v>
       </c>
       <c r="BK14">
-        <v>68.403620518117933</v>
+        <v>69.109129646629924</v>
       </c>
       <c r="BL14">
-        <v>4.4585977990312151E-2</v>
+        <v>4.6616980437344149E-2</v>
       </c>
       <c r="BQ14">
         <v>2</v>
@@ -30970,14 +30954,8 @@
       <c r="BW14">
         <v>1</v>
       </c>
-      <c r="BX14">
-        <v>0.5</v>
-      </c>
       <c r="BY14">
         <v>0</v>
-      </c>
-      <c r="BZ14">
-        <v>2</v>
       </c>
       <c r="CA14">
         <v>-20</v>
@@ -31006,28 +30984,28 @@
         <v>1E-3</v>
       </c>
       <c r="E15">
-        <v>5.1845455670871149E-2</v>
+        <v>-0.16860284928977229</v>
       </c>
       <c r="F15">
-        <v>2.3051347693347122</v>
+        <v>1.574475866031336</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I15">
         <v>1E-3</v>
       </c>
       <c r="J15">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K15">
         <v>10</v>
       </c>
       <c r="L15">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>-5</v>
@@ -31087,7 +31065,7 @@
         <v>100</v>
       </c>
       <c r="AH15">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -31108,13 +31086,13 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AP15">
         <v>5</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -31123,7 +31101,7 @@
         <v>3</v>
       </c>
       <c r="AT15">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="AU15">
         <v>0.2</v>
@@ -31138,7 +31116,7 @@
         <v>3</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AZ15">
         <v>0</v>
@@ -31156,13 +31134,13 @@
         <v>208</v>
       </c>
       <c r="BJ15">
-        <v>13.19202647483603</v>
+        <v>14.91337779361961</v>
       </c>
       <c r="BK15">
-        <v>-4.7830374571062322</v>
+        <v>8.3482978447428025</v>
       </c>
       <c r="BL15">
-        <v>-1.923454903087703E-2</v>
+        <v>-2.0326158840754779E-2</v>
       </c>
       <c r="BQ15">
         <v>1</v>
@@ -31185,14 +31163,8 @@
       <c r="BW15">
         <v>0.25</v>
       </c>
-      <c r="BX15">
-        <v>-0.5</v>
-      </c>
       <c r="BY15">
         <v>-0.5</v>
-      </c>
-      <c r="BZ15">
-        <v>0</v>
       </c>
       <c r="CA15">
         <v>-160</v>
@@ -31214,17 +31186,19 @@
       <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="D16">
-        <v>7.7999999999999996E-3</v>
+      <c r="C16" s="2">
+        <f>9/8*0.067</f>
+        <v>7.5374999999999998E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <f>9/8*0.0078</f>
+        <v>8.7749999999999998E-3</v>
       </c>
       <c r="E16">
-        <v>6.3463189495856887E-2</v>
+        <v>0.1038936754150305</v>
       </c>
       <c r="F16">
-        <v>2.4211431090600541</v>
+        <v>2.316858930756295</v>
       </c>
       <c r="G16">
         <v>0.2</v>
@@ -31335,7 +31309,7 @@
         <v>20</v>
       </c>
       <c r="AQ16">
-        <v>0.3</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AR16">
         <v>5</v>
@@ -31392,22 +31366,22 @@
         <v>208</v>
       </c>
       <c r="BJ16">
-        <v>39.990463258075899</v>
+        <v>38.473530823268561</v>
       </c>
       <c r="BK16">
-        <v>19.88974665311509</v>
+        <v>19.644088344125869</v>
       </c>
       <c r="BL16">
-        <v>3.0538404817519588E-2</v>
+        <v>3.2380559789700877E-2</v>
       </c>
       <c r="BM16">
-        <v>2.3536384829090479E-5</v>
+        <v>2.6918656395787E-5</v>
       </c>
       <c r="BN16">
-        <v>-0.53581325088825482</v>
+        <v>-0.32063319700030879</v>
       </c>
       <c r="BO16">
-        <v>3.4671500102029249</v>
+        <v>3.2152543524030741</v>
       </c>
       <c r="BP16">
         <v>0</v>
@@ -31462,19 +31436,19 @@
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <f>C16</f>
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="D17">
+        <v>7.5374999999999998E-2</v>
+      </c>
+      <c r="D17" s="2">
         <f>D16</f>
-        <v>7.7999999999999996E-3</v>
+        <v>8.7749999999999998E-3</v>
       </c>
       <c r="E17">
-        <v>9.8017810711569106E-2</v>
+        <v>0.15667508442200881</v>
       </c>
       <c r="F17">
-        <v>2.341860134135834</v>
+        <v>2.2417959753245862</v>
       </c>
       <c r="G17">
         <f>G16</f>
@@ -31620,7 +31594,7 @@
       </c>
       <c r="AQ17">
         <f t="shared" si="25"/>
-        <v>0.3</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AR17">
         <f t="shared" si="25"/>
@@ -31691,22 +31665,22 @@
         <v>208</v>
       </c>
       <c r="BJ17">
-        <v>38.298589323046677</v>
+        <v>46.023859448244657</v>
       </c>
       <c r="BK17">
-        <v>19.881303802539609</v>
+        <v>13.337496280385141</v>
       </c>
       <c r="BL17">
-        <v>5.6956919744976887E-2</v>
+        <v>1.3948820007636691E-2</v>
       </c>
       <c r="BM17">
-        <v>1.1677431415739021E-9</v>
+        <v>1.339110057708735E-11</v>
       </c>
       <c r="BN17">
-        <v>0.71779412276703081</v>
+        <v>-0.39427828883598759</v>
       </c>
       <c r="BO17">
-        <v>5.0732193769927427</v>
+        <v>7.4015731938956772</v>
       </c>
       <c r="BP17">
         <v>0</v>
@@ -31776,28 +31750,28 @@
         <v>34</v>
       </c>
       <c r="C18">
+        <v>0.8</v>
+      </c>
+      <c r="D18">
         <v>0.5</v>
       </c>
-      <c r="D18">
-        <v>0.3</v>
-      </c>
       <c r="E18">
-        <v>0.109059320902877</v>
+        <v>0.48195301813378988</v>
       </c>
       <c r="F18">
-        <v>2.474300642070395</v>
+        <v>2.9091160846178359</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I18" s="4">
-        <v>0.05</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="J18" s="4">
-        <v>0.05</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="K18">
         <v>80</v>
@@ -31824,7 +31798,7 @@
         <v>11</v>
       </c>
       <c r="U18">
-        <v>1.99</v>
+        <v>1.7</v>
       </c>
       <c r="V18">
         <v>1</v>
@@ -31863,7 +31837,7 @@
         <v>1100</v>
       </c>
       <c r="AH18">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AI18">
         <v>2</v>
@@ -31890,7 +31864,7 @@
         <v>50</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR18">
         <v>20</v>
@@ -31899,7 +31873,7 @@
         <v>10</v>
       </c>
       <c r="AT18">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AU18">
         <v>0.8</v>
@@ -31908,13 +31882,13 @@
         <v>0.01</v>
       </c>
       <c r="AW18">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="AX18">
         <v>10</v>
       </c>
       <c r="AY18">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="AZ18">
         <v>1</v>
@@ -31932,13 +31906,13 @@
         <v>208</v>
       </c>
       <c r="BJ18">
-        <v>66.78890004131577</v>
+        <v>62.033683852917513</v>
       </c>
       <c r="BK18">
-        <v>44.545645062185457</v>
+        <v>25.962383495312469</v>
       </c>
       <c r="BL18">
-        <v>0.1331483885208308</v>
+        <v>6.046525237202266E-2</v>
       </c>
       <c r="BQ18">
         <v>2</v>
@@ -31961,14 +31935,8 @@
       <c r="BW18">
         <v>1</v>
       </c>
-      <c r="BX18">
-        <v>0.5</v>
-      </c>
       <c r="BY18">
         <v>0</v>
-      </c>
-      <c r="BZ18">
-        <v>2</v>
       </c>
       <c r="CA18">
         <v>-20</v>
@@ -32007,11 +31975,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463F4E97-620C-45C7-8638-A85403662606}">
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32109,6 +32077,101 @@
       </c>
       <c r="AE1" s="1" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>-1.5680000000000001</v>
+      </c>
+      <c r="C2">
+        <v>1.982</v>
+      </c>
+      <c r="D2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E2">
+        <v>-0.90200000000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="L2">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="M2">
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="N2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O2">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="P2">
+        <v>-0.152</v>
+      </c>
+      <c r="Q2">
+        <v>-3.4540000000000002</v>
+      </c>
+      <c r="R2">
+        <v>2.4470000000000001</v>
+      </c>
+      <c r="S2">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="V2">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="W2">
+        <v>1.369</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>-1.2629999999999999</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>-0.85399999999999998</v>
+      </c>
+      <c r="AB2">
+        <v>-0.126</v>
+      </c>
+      <c r="AC2">
+        <v>0.112</v>
+      </c>
+      <c r="AD2">
+        <v>1.9710000000000001</v>
+      </c>
+      <c r="AE2">
+        <v>-0.60899999999999999</v>
       </c>
     </row>
   </sheetData>
